--- a/bitget_project/manage/0913/업데이트목록.xlsx
+++ b/bitget_project/manage/0913/업데이트목록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdonn\Documents\GitHub\mandleda\bitget_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59216120-CD4F-47A2-8F0F-7926268C9461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06BBAC9-8760-425D-9A65-0BC685FC514D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="111">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -361,24 +361,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5.마지막 단계 색상
-○ 2단계로 설정 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹에서 매수하면 0차 매수 상태로 변경</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7. 프로그램매매 X, 웹에서 open -&gt; 상태 '대기'
--&gt; [시작] -&gt; 추가매수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설정값:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1.분할매수
 ○ 1차 분할매수
 ○ 6차 분할매수</t>
@@ -396,6 +378,128 @@
   </si>
   <si>
     <t>일부 if문 들여쓰기 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>short</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>save_div_data_func state 변경 후로 위치 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재구매 x일때 0차 익절</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0차 익절</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-4 매도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-6 7차매수 키에러-&gt; 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강제분할매수 수정 후 max 테스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 이상 매수되지 않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>long 시작, short 시작, 둘다시작 , 라디오 버튼 괜찬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작버튼 다 살리고 포지션 각각 따로 시작 가능하게(동작중에도)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요할때 activate flase로 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>activate가 true라서 대기상태에서 매도 진행 버그</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_roe,min_roe 초기화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 실패시 알림창</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>손절 test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정버튼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 성공 - 시작 중지 활성화 실패 - 비활성화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹에서 매수하면 0차 매수 상태로 변경 X 대기 유지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">7. 프로그램매매 X, 웹에서 open -&gt; 상태 '대기'
+-&gt; [시작] -&gt; 추가매수 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5.마지막 단계 색상
+○ 2단계로 설정 확인 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부분완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.강제분할매수 테스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.익절 test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인된 사항</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6차 익절</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부분완료(7차분할매수 접근 test)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정버튼 적용시 일괄 setting값 update</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 실패시 버튼 비활성화</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -548,6 +652,275 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>839480</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>152795</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C113167A-FBE7-ACAF-7073-16B32C6217D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7096125" y="21545550"/>
+          <a:ext cx="9173855" cy="3038870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>868061</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>181380</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{299BE7FE-D803-3D68-4A3B-CC1A34DD0793}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7086600" y="25479375"/>
+          <a:ext cx="9211961" cy="2905530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>829955</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>76591</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7FD7DA9-ADA4-E2FB-3BBB-5DAB0FCF0ADE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7086600" y="28832175"/>
+          <a:ext cx="9173855" cy="2800741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>772797</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>152772</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8540BA3-38F2-C971-E979-07E0F490148C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7086600" y="32184975"/>
+          <a:ext cx="9116697" cy="2667372"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1753044</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>95410</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B908888E-A245-2BAF-758E-588BDE93C831}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7086600" y="34909125"/>
+          <a:ext cx="3181794" cy="1143160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1762570</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>162269</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBBB2367-58F9-2F11-B3E4-DDAD8180DE01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7086600" y="36166425"/>
+          <a:ext cx="3191320" cy="2467319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -813,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R46" sqref="R46"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -825,8 +1198,9 @@
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="45.875" customWidth="1"/>
-    <col min="6" max="6" width="19.625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="41.875" customWidth="1"/>
+    <col min="6" max="6" width="18.75" style="5" customWidth="1"/>
+    <col min="7" max="7" width="90.75" customWidth="1"/>
+    <col min="8" max="8" width="61.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -909,7 +1283,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="165" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
         <v>18</v>
       </c>
@@ -1114,7 +1488,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="4:7" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:7" ht="181.5" x14ac:dyDescent="0.3">
       <c r="E40" t="s">
         <v>50</v>
       </c>
@@ -1238,7 +1612,7 @@
         <v>70</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>73</v>
@@ -1257,66 +1631,196 @@
     </row>
     <row r="55" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E55" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="5:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E56" t="s">
+        <v>83</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E57" t="s">
+        <v>98</v>
+      </c>
+      <c r="G57" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E58" t="s">
+        <v>90</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E59" t="s">
+        <v>91</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E60" t="s">
+        <v>95</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E61" t="s">
+        <v>93</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E62" t="s">
+        <v>94</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E63" t="s">
+        <v>97</v>
+      </c>
+      <c r="G63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="5:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="E64" t="s">
         <v>74</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="G64" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="5:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="G65" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="5:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="G66" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="5:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="G67" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="5:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="G68" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="5:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="E69" t="s">
+        <v>99</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E70" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E85" t="s">
+        <v>106</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G85" t="s">
         <v>81</v>
       </c>
-      <c r="H56" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="5:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="G57" s="7" t="s">
+      <c r="H85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G86" t="s">
         <v>82</v>
       </c>
-      <c r="H57" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="5:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="G58" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="5:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="G59" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="5:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="G60" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61" spans="5:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="E61" t="s">
-        <v>78</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>80</v>
+      <c r="H86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E87" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="101" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F101" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G101" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="102" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F102" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="103" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E103" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="117" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F117" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="119" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E119" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1326,5 +1830,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>